--- a/Project Management/Time sheet/Timetsheet - Yingyao Lu.xlsx
+++ b/Project Management/Time sheet/Timetsheet - Yingyao Lu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Desktop/Team-024/Project Management/Time sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Desktop/MCI/Team-024/Project Management/Time sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E0A657-F90B-874A-8644-18BAD59CD08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B567C367-D44B-7B4F-B5E1-58722993115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="3120" windowWidth="24540" windowHeight="17500" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24540" windowHeight="17500" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week2" sheetId="3" r:id="rId1"/>
@@ -25,12 +25,14 @@
     <sheet name="Week10" sheetId="11" r:id="rId10"/>
     <sheet name="Week11" sheetId="12" r:id="rId11"/>
     <sheet name="Week12" sheetId="13" r:id="rId12"/>
+    <sheet name="Week13" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Midbreak!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Week10!$A$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Week11!$A$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">Week12!$A$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">Week13!$A$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Week2!$A$1:$H$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Week3!$A$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Week4!$A$1:$H$18</definedName>
@@ -43,6 +45,7 @@
     <definedName name="Week_Start" localSheetId="9">Week10!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="10">Week11!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="11">Week12!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="12">Week13!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="0">Week2!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="1">Week3!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="2">Week4!$C$4</definedName>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="186">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -619,6 +622,24 @@
   </si>
   <si>
     <t>Modify database</t>
+  </si>
+  <si>
+    <t>Prepare for demo</t>
+  </si>
+  <si>
+    <t>Final video</t>
+  </si>
+  <si>
+    <t>Fianl Report</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Organise Github</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2408,7 @@
   </sheetPr>
   <dimension ref="A2:AW13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3539,6 +3560,566 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{651604FF-A64F-8B46-8AC5-9F05B68B5EC1}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA7EF0F-633F-CF4A-A3C1-D56C285253C2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="15" max="49" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1784870</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44354</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+    </row>
+    <row r="7" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15">
+        <v>44355</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+    </row>
+    <row r="8" spans="1:49" s="10" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44356</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E8" s="13">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+    </row>
+    <row r="9" spans="1:49" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15">
+        <v>44357</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+    </row>
+    <row r="10" spans="1:49" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44358</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+    </row>
+    <row r="11" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15">
+        <v>44359</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+    </row>
+    <row r="12" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>44360</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+    </row>
+    <row r="13" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
+        <f>SUM(E6:E12)</f>
+        <v>14</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{5FD0657E-0D3C-B74E-B7F9-A3CAC919A7EC}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
